--- a/biology/Zoologie/Carouge_à_capuchon/Carouge_à_capuchon.xlsx
+++ b/biology/Zoologie/Carouge_à_capuchon/Carouge_à_capuchon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carouge_%C3%A0_capuchon</t>
+          <t>Carouge_à_capuchon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysomus icterocephalus
 Le Carouge à capuchon (Chrysomus icterocephalus) est une espèce de passereau de la famille des ictéridés.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carouge_%C3%A0_capuchon</t>
+          <t>Carouge_à_capuchon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des deux sous-espèces suivantes :
 C. i. bogotensis (Chapman, 1914)
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carouge_%C3%A0_capuchon</t>
+          <t>Carouge_à_capuchon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Carouge à capuchon se retrouve dans le nord du Brésil, dans le nord-est du Pérou, la Guyane, le Suriname, le Guyana, le nord du Venezuela, le nord de la Colombie et Trinité-et-Tobago.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Carouge_%C3%A0_capuchon</t>
+          <t>Carouge_à_capuchon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Carouge à capuchon niche dans les marécages et les rizières peuplés de végétations émergentes, mais se nourrit souvent dans les terrains agricoles avoisinants. En dehors de la saison de nidification, on le voit autant dans les zones agricoles, les pâturages que les marécages.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Carouge_%C3%A0_capuchon</t>
+          <t>Carouge_à_capuchon</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nid, construit par le mâle et fait de matières végétales, est fixé aux tiges des plantes émergentes à environ 50 cm au-dessus de l’eau. Les œufs sont au nombre de deux à trois. Le Carouge à capuchon est fréquemment l’hôte du Vacher luisant.
 </t>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Carouge_%C3%A0_capuchon</t>
+          <t>Carouge_à_capuchon</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Carouge à capuchon est territoriale et le mâle est polygyne. Un mâle peut s’accoupler avec un maximum de cinq femelles pour lesquelles il construit à chacune un nid. La femelle se charge de tapisser l’intérieur du nid avant de pondre ses œufs.
 </t>
